--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/133e448715103827/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shailendra Prakash\eclipse-workspace\Opencart121\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E79CF1E-744C-48E6-837A-D971AF58602E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A4C32B-4261-4D22-9953-641F8F8D9D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -36,9 +36,6 @@
     <t>res</t>
   </si>
   <si>
-    <t>pavanoltraining@gmail.com</t>
-  </si>
-  <si>
     <t>test@123</t>
   </si>
   <si>
@@ -67,13 +64,19 @@
   </si>
   <si>
     <t>abc123@gmail.com</t>
+  </si>
+  <si>
+    <t>prakashshailendra45@gmail.com</t>
+  </si>
+  <si>
+    <t>Atharv@123@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +88,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -221,10 +230,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -506,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -518,7 +527,7 @@
     <col min="2" max="2" width="8.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,70 +538,74 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>5</v>
-      </c>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G11" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{4ACAD77D-1E3B-4562-8C32-D13E887A270B}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{2E5EE824-D364-472A-9E9A-762C1FE510AF}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{A5F97DCE-02F5-47D7-AA0F-D95CE40F3E34}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{B1708F7A-C9CE-4218-A185-5C082909B557}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{6703B784-F9F7-4C35-8692-6A1765683DD6}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{4ACAD77D-1E3B-4562-8C32-D13E887A270B}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{87AF0308-A47E-4496-A036-B2BB963563EF}"/>
     <hyperlink ref="A5" r:id="rId5" xr:uid="{56405B81-61C1-486C-90F4-1D3136488BBC}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{87AF0308-A47E-4496-A036-B2BB963563EF}"/>
-    <hyperlink ref="B6" r:id="rId7" xr:uid="{2E5EE824-D364-472A-9E9A-762C1FE510AF}"/>
+    <hyperlink ref="A4" r:id="rId6" xr:uid="{6703B784-F9F7-4C35-8692-6A1765683DD6}"/>
+    <hyperlink ref="A3" r:id="rId7" xr:uid="{B1708F7A-C9CE-4218-A185-5C082909B557}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
